--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A580D91-0DF4-4ED2-B500-664E8A6990F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E269D74-C020-4260-A600-756F471AAB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
   <si>
     <t>S.NO</t>
   </si>
@@ -340,6 +340,9 @@
   <si>
     <t xml:space="preserve">Providing and installation of Strainer 12" dia for main Condenssor water with flange, nut bolt, gaskte etc complete in all respect
 Make HATTERSLEY OR GALA </t>
+  </si>
+  <si>
+    <t>Overhauling of AHU motor ball bearing replaced with new (Make SKF) including setting of motor foundation repaired if required and fix belt guard properly including motor pully.</t>
   </si>
 </sst>
 </file>
@@ -1517,15 +1520,15 @@
       </c>
       <c r="C15" s="48">
         <f>Sheet1!G27</f>
-        <v>1493000</v>
+        <v>1533000</v>
       </c>
       <c r="D15" s="48">
         <f>Sheet1!H27</f>
-        <v>448000</v>
+        <v>458000</v>
       </c>
       <c r="E15" s="48">
         <f>D15+C15</f>
-        <v>1941000</v>
+        <v>1991000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,15 +1540,15 @@
       </c>
       <c r="C16" s="48">
         <f>Sheet1!G51</f>
-        <v>1203000</v>
+        <v>1243000</v>
       </c>
       <c r="D16" s="48">
         <f>Sheet1!H51</f>
-        <v>334000</v>
+        <v>344000</v>
       </c>
       <c r="E16" s="48">
         <f>D16+C16</f>
-        <v>1537000</v>
+        <v>1587000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,15 +1560,15 @@
       </c>
       <c r="C17" s="48">
         <f>Sheet1!G75</f>
-        <v>1493000</v>
+        <v>1533000</v>
       </c>
       <c r="D17" s="48">
         <f>Sheet1!H75</f>
-        <v>448000</v>
+        <v>458000</v>
       </c>
       <c r="E17" s="48">
         <f>D17+C17</f>
-        <v>1941000</v>
+        <v>1991000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,15 +1580,15 @@
       </c>
       <c r="C18" s="48">
         <f>Sheet1!G99</f>
-        <v>1493000</v>
+        <v>1533000</v>
       </c>
       <c r="D18" s="48">
         <f>Sheet1!H99</f>
-        <v>448000</v>
+        <v>458000</v>
       </c>
       <c r="E18" s="48">
         <f>D18+C18</f>
-        <v>1941000</v>
+        <v>1991000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,15 +1680,15 @@
       </c>
       <c r="C23" s="39">
         <f>Sheet2!G11</f>
-        <v>6045000</v>
+        <v>7445000</v>
       </c>
       <c r="D23" s="39">
         <f>Sheet2!H11</f>
-        <v>245000</v>
+        <v>275000</v>
       </c>
       <c r="E23" s="39">
         <f t="shared" si="0"/>
-        <v>6290000</v>
+        <v>7720000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,15 +1698,15 @@
       </c>
       <c r="C24" s="40">
         <f>SUM(C15:C23)</f>
-        <v>13666000</v>
+        <v>15226000</v>
       </c>
       <c r="D24" s="40">
         <f>SUM(D15:D23)</f>
-        <v>2582000</v>
+        <v>2652000</v>
       </c>
       <c r="E24" s="40">
         <f>SUM(E15:E23)</f>
-        <v>16248000</v>
+        <v>17878000</v>
       </c>
     </row>
   </sheetData>
@@ -1720,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -1890,18 +1893,18 @@
         <v>15</v>
       </c>
       <c r="E9" s="14">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F9" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
@@ -2391,11 +2394,11 @@
       <c r="F27" s="63"/>
       <c r="G27" s="26">
         <f>SUM(G6:G26)</f>
-        <v>1493000</v>
+        <v>1533000</v>
       </c>
       <c r="H27" s="26">
         <f>SUM(H6:H26)</f>
-        <v>448000</v>
+        <v>458000</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,12 +2489,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="49">
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -2500,18 +2503,18 @@
         <v>15</v>
       </c>
       <c r="E33" s="14">
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="F33" s="14">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="6"/>
-        <v>45000</v>
+        <v>85000</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="7"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
@@ -3001,11 +3004,11 @@
       <c r="F51" s="63"/>
       <c r="G51" s="26">
         <f>SUM(G30:G50)</f>
-        <v>1203000</v>
+        <v>1243000</v>
       </c>
       <c r="H51" s="26">
         <f>SUM(H30:H50)</f>
-        <v>334000</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3086,12 +3089,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A57" s="49">
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C57" s="9">
         <v>1</v>
@@ -3100,18 +3103,18 @@
         <v>15</v>
       </c>
       <c r="E57" s="14">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F57" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="8"/>
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="9"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
@@ -3601,11 +3604,11 @@
       <c r="F75" s="63"/>
       <c r="G75" s="26">
         <f>SUM(G53:G74)</f>
-        <v>1493000</v>
+        <v>1533000</v>
       </c>
       <c r="H75" s="26">
         <f>SUM(H53:H74)</f>
-        <v>448000</v>
+        <v>458000</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3686,12 +3689,12 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A81" s="49">
         <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C81" s="9">
         <v>1</v>
@@ -3700,18 +3703,18 @@
         <v>15</v>
       </c>
       <c r="E81" s="14">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F81" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="14">
         <f t="shared" si="10"/>
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="11"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
@@ -4201,11 +4204,11 @@
       <c r="F99" s="63"/>
       <c r="G99" s="26">
         <f>SUM(G77:G98)</f>
-        <v>1493000</v>
+        <v>1533000</v>
       </c>
       <c r="H99" s="26">
         <f>SUM(H77:H98)</f>
-        <v>448000</v>
+        <v>458000</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5577,8 +5580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5728,7 +5731,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
@@ -5741,11 +5744,11 @@
       </c>
       <c r="G8" s="14">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>2800000</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
@@ -5815,11 +5818,11 @@
       <c r="F11" s="63"/>
       <c r="G11" s="54">
         <f>SUM(G6:G10)</f>
-        <v>6045000</v>
+        <v>7445000</v>
       </c>
       <c r="H11" s="54">
         <f>SUM(H6:H10)</f>
-        <v>245000</v>
+        <v>275000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">

--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E269D74-C020-4260-A600-756F471AAB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAECDFF-639E-43ED-BCE7-7B13748A7237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$1:$2</definedName>
   </definedNames>
@@ -840,6 +840,216 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1001713</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A4140C-DBBE-411E-8656-4114032B995E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="476250" y="66675"/>
+          <a:ext cx="944563" cy="730249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1012051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B62EFC4-86A1-4738-BF6A-E7113433007D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1431151" y="168272"/>
+          <a:ext cx="4483874" cy="681965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>IONEER </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Book Antiqua"/>
+            </a:rPr>
+            <a:t>ERVICES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="1">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="3300" b="0" i="0" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Book Antiqua"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79E00C1-85D1-4EE3-B008-33877BB4E2FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="7486650"/>
+          <a:ext cx="828675" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1103,16 +1313,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A4:E24"/>
+  <dimension ref="A8:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="34" style="16" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
@@ -1435,287 +1645,288 @@
     <col min="16133" max="16133" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="E4" s="29" t="s">
+    <row r="8" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="E8" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="9" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="31">
-        <v>45531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="E12" s="31">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-    </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+    </row>
+    <row r="17" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>1</v>
-      </c>
-      <c r="B15" s="45" t="s">
+    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C19" s="48">
         <f>Sheet1!G27</f>
         <v>1533000</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D19" s="48">
         <f>Sheet1!H27</f>
         <v>458000</v>
       </c>
-      <c r="E15" s="48">
-        <f>D15+C15</f>
+      <c r="E19" s="48">
+        <f>D19+C19</f>
         <v>1991000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+    <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>2</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B20" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C20" s="48">
         <f>Sheet1!G51</f>
         <v>1243000</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D20" s="48">
         <f>Sheet1!H51</f>
         <v>344000</v>
       </c>
-      <c r="E16" s="48">
-        <f>D16+C16</f>
+      <c r="E20" s="48">
+        <f>D20+C20</f>
         <v>1587000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>3</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C21" s="48">
         <f>Sheet1!G75</f>
         <v>1533000</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D21" s="48">
         <f>Sheet1!H75</f>
         <v>458000</v>
       </c>
-      <c r="E17" s="48">
-        <f>D17+C17</f>
+      <c r="E21" s="48">
+        <f>D21+C21</f>
         <v>1991000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>4</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B22" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C22" s="48">
         <f>Sheet1!G99</f>
         <v>1533000</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D22" s="48">
         <f>Sheet1!H99</f>
         <v>458000</v>
       </c>
-      <c r="E18" s="48">
-        <f>D18+C18</f>
+      <c r="E22" s="48">
+        <f>D22+C22</f>
         <v>1991000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>5</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B23" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C23" s="48">
         <f>Sheet1!G123</f>
         <v>892000</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D23" s="48">
         <f>Sheet1!H123</f>
         <v>319000</v>
       </c>
-      <c r="E19" s="48">
-        <f t="shared" ref="E19:E23" si="0">D19+C19</f>
+      <c r="E23" s="48">
+        <f t="shared" ref="E23:E27" si="0">D23+C23</f>
         <v>1211000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B24" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C24" s="48">
         <f>Sheet1!G133</f>
         <v>417000</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D24" s="48">
         <f>Sheet1!H133</f>
         <v>90000</v>
       </c>
-      <c r="E20" s="48">
-        <f>D20+C20</f>
+      <c r="E24" s="48">
+        <f>D24+C24</f>
         <v>507000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C25" s="48">
         <f>Sheet1!G147</f>
         <v>475000</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D25" s="48">
         <f>Sheet1!H147</f>
         <v>175000</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E25" s="48">
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
         <v>8</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B26" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C26" s="48">
         <f>Sheet1!G157</f>
         <v>155000</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D26" s="48">
         <f>Sheet1!H157</f>
         <v>75000</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E26" s="48">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+    <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
         <v>9</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B27" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C27" s="39">
         <f>Sheet2!G11</f>
         <v>7445000</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D27" s="39">
         <f>Sheet2!H11</f>
         <v>275000</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E27" s="39">
         <f t="shared" si="0"/>
         <v>7720000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36" t="s">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="40">
-        <f>SUM(C15:C23)</f>
+      <c r="C28" s="40">
+        <f>SUM(C19:C27)</f>
         <v>15226000</v>
       </c>
-      <c r="D24" s="40">
-        <f>SUM(D15:D23)</f>
+      <c r="D28" s="40">
+        <f>SUM(D19:D27)</f>
         <v>2652000</v>
       </c>
-      <c r="E24" s="40">
-        <f>SUM(E15:E23)</f>
+      <c r="E28" s="40">
+        <f>SUM(E19:E27)</f>
         <v>17878000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1723,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5239,7 +5450,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49">
         <v>8</v>
       </c>
@@ -5267,7 +5478,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A145" s="49">
         <v>9</v>
       </c>
@@ -5295,7 +5506,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="49">
         <v>10</v>
       </c>
@@ -5580,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAECDFF-639E-43ED-BCE7-7B13748A7237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B0E68-7439-4D59-8659-CC9335DB1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$101:$H$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$1:$2</definedName>
   </definedNames>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="118">
   <si>
     <t>S.NO</t>
   </si>
@@ -343,6 +344,51 @@
   </si>
   <si>
     <t>Overhauling of AHU motor ball bearing replaced with new (Make SKF) including setting of motor foundation repaired if required and fix belt guard properly including motor pully.</t>
+  </si>
+  <si>
+    <t>Dismantle, lifting and shifting of AHU in chiller plant room.</t>
+  </si>
+  <si>
+    <t>Installation of AHUs.</t>
+  </si>
+  <si>
+    <t>Providing and installation of G.I Sheet metal duct for supply and return air.</t>
+  </si>
+  <si>
+    <t>SFT</t>
+  </si>
+  <si>
+    <t>Providing and installation of insulation 3/4" thick for supply ans return air ducts.</t>
+  </si>
+  <si>
+    <t>Providing and installation of motorized valve</t>
+  </si>
+  <si>
+    <t>Providing and installation of air devices</t>
+  </si>
+  <si>
+    <t>Supply and installation of electrical panel.</t>
+  </si>
+  <si>
+    <t>Supply and installation of temperature controller stand alone.</t>
+  </si>
+  <si>
+    <t>Supply and installation of hangers and supports.</t>
+  </si>
+  <si>
+    <t>Testing and commissioing of the system.</t>
+  </si>
+  <si>
+    <t>a)  06" Dia (Primary pumps)</t>
+  </si>
+  <si>
+    <t>Supply and installation of 08" Dia Gate valve for cooling water system suction and discharge lines.</t>
+  </si>
+  <si>
+    <t>b)  08" Dia (Secondary pumps)</t>
+  </si>
+  <si>
+    <t>Dismantle of cladding and insulation from chilled water primary and secondary pumps, removal of existing gate valves and supply and installation of new gate valves:</t>
   </si>
 </sst>
 </file>
@@ -640,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,9 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1315,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A8:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1689,13 +1732,13 @@
       <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
@@ -1809,11 +1852,11 @@
         <v>35</v>
       </c>
       <c r="C23" s="48">
-        <f>Sheet1!G123</f>
+        <f>Sheet1!G134</f>
         <v>892000</v>
       </c>
       <c r="D23" s="48">
-        <f>Sheet1!H123</f>
+        <f>Sheet1!H134</f>
         <v>319000</v>
       </c>
       <c r="E23" s="48">
@@ -1829,11 +1872,11 @@
         <v>56</v>
       </c>
       <c r="C24" s="48">
-        <f>Sheet1!G133</f>
+        <f>Sheet1!G144</f>
         <v>417000</v>
       </c>
       <c r="D24" s="48">
-        <f>Sheet1!H133</f>
+        <f>Sheet1!H144</f>
         <v>90000</v>
       </c>
       <c r="E24" s="48">
@@ -1849,11 +1892,11 @@
         <v>39</v>
       </c>
       <c r="C25" s="48">
-        <f>Sheet1!G147</f>
+        <f>Sheet1!G158</f>
         <v>475000</v>
       </c>
       <c r="D25" s="48">
-        <f>Sheet1!H147</f>
+        <f>Sheet1!H158</f>
         <v>175000</v>
       </c>
       <c r="E25" s="48">
@@ -1869,11 +1912,11 @@
         <v>8</v>
       </c>
       <c r="C26" s="48">
-        <f>Sheet1!G157</f>
+        <f>Sheet1!G168</f>
         <v>155000</v>
       </c>
       <c r="D26" s="48">
-        <f>Sheet1!H157</f>
+        <f>Sheet1!H168</f>
         <v>75000</v>
       </c>
       <c r="E26" s="48">
@@ -1889,11 +1932,11 @@
         <v>92</v>
       </c>
       <c r="C27" s="39">
-        <f>Sheet2!G11</f>
+        <f>Sheet2!G15</f>
         <v>7445000</v>
       </c>
       <c r="D27" s="39">
-        <f>Sheet2!H11</f>
+        <f>Sheet2!H15</f>
         <v>275000</v>
       </c>
       <c r="E27" s="39">
@@ -1932,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1955,16 +1998,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -2595,14 +2638,14 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="26">
         <f>SUM(G6:G26)</f>
         <v>1533000</v>
@@ -3205,14 +3248,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="63"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="26">
         <f>SUM(G30:G50)</f>
         <v>1243000</v>
@@ -3805,14 +3848,14 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="63"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="26">
         <f>SUM(G53:G74)</f>
         <v>1533000</v>
@@ -4405,14 +4448,14 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B99" s="62"/>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="63"/>
+      <c r="B99" s="61"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="62"/>
       <c r="G99" s="26">
         <f>SUM(G77:G98)</f>
         <v>1533000</v>
@@ -4724,7 +4767,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="49">
         <v>11</v>
       </c>
@@ -4752,7 +4795,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A114" s="49">
         <v>12</v>
       </c>
@@ -4780,7 +4823,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A115" s="49">
         <v>13</v>
       </c>
@@ -4808,7 +4851,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A116" s="49">
         <v>14</v>
       </c>
@@ -4836,7 +4879,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="49">
         <v>15</v>
       </c>
@@ -4864,7 +4907,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="49">
         <v>16</v>
       </c>
@@ -4892,7 +4935,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A119" s="49">
         <v>17</v>
       </c>
@@ -4920,7 +4963,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A120" s="49">
         <v>18</v>
       </c>
@@ -4948,7 +4991,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="49">
         <v>19</v>
       </c>
@@ -4976,7 +5019,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A122" s="49">
         <v>20</v>
       </c>
@@ -5004,318 +5047,328 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="63"/>
-      <c r="G123" s="26">
-        <f>SUM(G101:G122)</f>
-        <v>892000</v>
-      </c>
-      <c r="H123" s="26">
-        <f>SUM(H101:H122)</f>
-        <v>319000</v>
-      </c>
-      <c r="J123" s="47"/>
-      <c r="K123" s="47"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="41" t="s">
-        <v>36</v>
+    <row r="123" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="49">
+        <v>21</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="9">
+        <v>1</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14">
+        <f t="shared" ref="G123:G133" si="14">E123*C123</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <f t="shared" ref="H123:H133" si="15">F123*C123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="49">
+        <v>22</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="9">
+        <v>1</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="49">
+        <v>23</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>105</v>
       </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="42"/>
+      <c r="D125" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="49">
+        <v>24</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>107</v>
+      </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+      <c r="D126" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-    </row>
-    <row r="127" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="G126" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="49">
-        <v>1</v>
-      </c>
-      <c r="B127" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C127" s="9">
-        <v>2</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B127" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C127" s="9"/>
       <c r="D127" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E127" s="14">
-        <v>75000</v>
-      </c>
-      <c r="F127" s="14">
-        <v>10000</v>
-      </c>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
       <c r="G127" s="14">
-        <f>E127*C127</f>
-        <v>150000</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H127" s="14">
-        <f>F127*C127</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="49">
-        <v>2</v>
-      </c>
-      <c r="B128" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C128" s="9">
-        <v>2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" s="9"/>
       <c r="D128" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E128" s="14">
-        <v>19500</v>
-      </c>
-      <c r="F128" s="14">
-        <v>5000</v>
-      </c>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="14">
-        <f>E128*C128</f>
-        <v>39000</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H128" s="14">
-        <f>F128*C128</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="49">
-        <v>3</v>
-      </c>
-      <c r="B129" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C129" s="9">
-        <v>2</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="9"/>
       <c r="D129" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="14">
-        <v>45000</v>
-      </c>
-      <c r="F129" s="14">
-        <v>10000</v>
-      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="14">
-        <f t="shared" ref="G129:G131" si="14">E129*C129</f>
-        <v>90000</v>
+        <f t="shared" ref="G129:G131" si="16">E129*C129</f>
+        <v>0</v>
       </c>
       <c r="H129" s="14">
-        <f t="shared" ref="H129:H131" si="15">F129*C129</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H129:H131" si="17">F129*C129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="49">
-        <v>4</v>
-      </c>
-      <c r="B130" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="9">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="9"/>
       <c r="D130" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E130" s="14">
-        <v>12000</v>
-      </c>
-      <c r="F130" s="14">
-        <v>5000</v>
-      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="14">
-        <f>E130*C130</f>
-        <v>24000</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="H130" s="14">
-        <f>F130*C130</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="49">
-        <v>5</v>
-      </c>
-      <c r="B131" s="53" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C131" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="14">
-        <v>45000</v>
-      </c>
-      <c r="F131" s="14">
-        <v>10000</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="14">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="49">
+        <v>30</v>
+      </c>
+      <c r="B132" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="9">
+        <v>1</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14">
+        <f t="shared" ref="G132" si="18">E132*C132</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="14">
+        <f t="shared" ref="H132" si="19">F132*C132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="49">
+        <v>31</v>
+      </c>
+      <c r="B133" s="50"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14">
         <f t="shared" si="14"/>
-        <v>90000</v>
-      </c>
-      <c r="H131" s="14">
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
         <f t="shared" si="15"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A132" s="49">
-        <v>6</v>
-      </c>
-      <c r="B132" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C132" s="9">
-        <v>2</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="14">
-        <v>12000</v>
-      </c>
-      <c r="F132" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G132" s="14">
-        <f>E132*C132</f>
-        <v>24000</v>
-      </c>
-      <c r="H132" s="14">
-        <f>F132*C132</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A134" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B133" s="62"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="63"/>
-      <c r="G133" s="26">
-        <f>SUM(G125:G132)</f>
-        <v>417000</v>
-      </c>
-      <c r="H133" s="26">
-        <f>SUM(H125:H132)</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="61"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="62"/>
+      <c r="G134" s="26">
+        <f>SUM(G101:G133)</f>
+        <v>892000</v>
+      </c>
+      <c r="H134" s="26">
+        <f>SUM(H101:H133)</f>
+        <v>319000</v>
+      </c>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
-      <c r="B136" s="42"/>
+      <c r="B136" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-    </row>
-    <row r="137" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="49">
-        <v>1</v>
-      </c>
-      <c r="B137" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C137" s="9">
-        <v>1</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="14">
-        <v>30000</v>
-      </c>
-      <c r="F137" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G137" s="14">
-        <f>E137*C137</f>
-        <v>30000</v>
-      </c>
-      <c r="H137" s="14">
-        <f>F137*C137</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="43"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+    </row>
+    <row r="138" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A138" s="49">
+        <v>1</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="9">
         <v>2</v>
       </c>
-      <c r="B138" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C138" s="9">
-        <v>1</v>
-      </c>
       <c r="D138" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E138" s="14">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="F138" s="14">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G138" s="14">
-        <f t="shared" ref="G138:G146" si="16">E138*C138</f>
-        <v>20000</v>
+        <f>E138*C138</f>
+        <v>150000</v>
       </c>
       <c r="H138" s="14">
-        <f t="shared" ref="H138:H146" si="17">F138*C138</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+        <f>F138*C138</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" s="53" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C139" s="9">
         <v>2</v>
@@ -5324,290 +5377,290 @@
         <v>12</v>
       </c>
       <c r="E139" s="14">
+        <v>19500</v>
+      </c>
+      <c r="F139" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G139" s="14">
+        <f>E139*C139</f>
+        <v>39000</v>
+      </c>
+      <c r="H139" s="14">
+        <f>F139*C139</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="49">
+        <v>3</v>
+      </c>
+      <c r="B140" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="9">
+        <v>2</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="14">
         <v>45000</v>
       </c>
-      <c r="F139" s="14">
+      <c r="F140" s="14">
         <v>10000</v>
       </c>
-      <c r="G139" s="14">
-        <f t="shared" si="16"/>
+      <c r="G140" s="14">
+        <f t="shared" ref="G140:G142" si="20">E140*C140</f>
         <v>90000</v>
       </c>
-      <c r="H139" s="14">
-        <f t="shared" si="17"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="49">
+      <c r="H140" s="14">
+        <f t="shared" ref="H140:H142" si="21">F140*C140</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A141" s="49">
         <v>4</v>
       </c>
-      <c r="B140" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C140" s="9">
-        <v>1</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="14">
-        <v>60000</v>
-      </c>
-      <c r="F140" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G140" s="14">
-        <f t="shared" si="16"/>
-        <v>60000</v>
-      </c>
-      <c r="H140" s="14">
-        <f t="shared" si="17"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="49">
-        <v>5</v>
-      </c>
       <c r="B141" s="53" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C141" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E141" s="14">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="F141" s="14">
         <v>5000</v>
       </c>
       <c r="G141" s="14">
-        <f t="shared" si="16"/>
-        <v>20000</v>
+        <f>E141*C141</f>
+        <v>24000</v>
       </c>
       <c r="H141" s="14">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <f>F141*C141</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="49">
+        <v>5</v>
+      </c>
+      <c r="B142" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="9">
+        <v>2</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="14">
+        <v>45000</v>
+      </c>
+      <c r="F142" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G142" s="14">
+        <f t="shared" si="20"/>
+        <v>90000</v>
+      </c>
+      <c r="H142" s="14">
+        <f t="shared" si="21"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A143" s="49">
         <v>6</v>
       </c>
-      <c r="B142" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="9">
-        <v>1</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="14">
-        <v>30000</v>
-      </c>
-      <c r="F142" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G142" s="14">
-        <f t="shared" si="16"/>
-        <v>30000</v>
-      </c>
-      <c r="H142" s="14">
-        <f t="shared" si="17"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="49">
-        <v>7</v>
-      </c>
-      <c r="B143" s="50" t="s">
-        <v>30</v>
+      <c r="B143" s="53" t="s">
+        <v>97</v>
       </c>
       <c r="C143" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E143" s="14">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="F143" s="14">
         <v>5000</v>
       </c>
       <c r="G143" s="14">
-        <f t="shared" si="16"/>
-        <v>15000</v>
+        <f>E143*C143</f>
+        <v>24000</v>
       </c>
       <c r="H143" s="14">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="49">
-        <v>8</v>
-      </c>
-      <c r="B144" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C144" s="9">
-        <v>1</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F144" s="14">
+        <f>F143*C143</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" s="61"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="61"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="26">
+        <f>SUM(G136:G143)</f>
+        <v>417000</v>
+      </c>
+      <c r="H144" s="26">
+        <f>SUM(H136:H143)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="43"/>
+      <c r="B146" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="43"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="49">
+        <v>1</v>
+      </c>
+      <c r="B148" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C148" s="9">
+        <v>1</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="14">
         <v>30000</v>
       </c>
-      <c r="G144" s="14">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="H144" s="14">
-        <f t="shared" si="17"/>
+      <c r="F148" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G148" s="14">
+        <f>E148*C148</f>
         <v>30000</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="49">
-        <v>9</v>
-      </c>
-      <c r="B145" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C145" s="9">
-        <v>1</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E145" s="14">
-        <v>130000</v>
-      </c>
-      <c r="F145" s="14">
-        <v>25000</v>
-      </c>
-      <c r="G145" s="14">
-        <f t="shared" si="16"/>
-        <v>130000</v>
-      </c>
-      <c r="H145" s="14">
-        <f t="shared" si="17"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="49">
-        <v>10</v>
-      </c>
-      <c r="B146" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="9">
-        <v>1</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E146" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F146" s="14">
+      <c r="H148" s="14">
+        <f>F148*C148</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="49">
+        <v>2</v>
+      </c>
+      <c r="B149" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F149" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G149" s="14">
+        <f t="shared" ref="G149:G157" si="22">E149*C149</f>
+        <v>20000</v>
+      </c>
+      <c r="H149" s="14">
+        <f t="shared" ref="H149:H157" si="23">F149*C149</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="49">
+        <v>3</v>
+      </c>
+      <c r="B150" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" s="9">
+        <v>2</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="14">
+        <v>45000</v>
+      </c>
+      <c r="F150" s="14">
         <v>10000</v>
       </c>
-      <c r="G146" s="14">
-        <f t="shared" si="16"/>
-        <v>40000</v>
-      </c>
-      <c r="H146" s="14">
-        <f t="shared" si="17"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A147" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="62"/>
-      <c r="C147" s="62"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="63"/>
-      <c r="G147" s="26">
-        <f>SUM(G137:G146)</f>
-        <v>475000</v>
-      </c>
-      <c r="H147" s="26">
-        <f>SUM(H137:H146)</f>
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="43"/>
-      <c r="B149" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
-      <c r="B150" s="42"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
+      <c r="G150" s="14">
+        <f t="shared" si="22"/>
+        <v>90000</v>
+      </c>
+      <c r="H150" s="14">
+        <f t="shared" si="23"/>
+        <v>20000</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A151" s="49">
-        <v>1</v>
-      </c>
-      <c r="B151" s="44" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B151" s="53" t="s">
+        <v>29</v>
       </c>
       <c r="C151" s="9">
         <v>1</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E151" s="14">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="F151" s="14">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G151" s="14">
-        <f>E151*C151</f>
-        <v>10000</v>
+        <f t="shared" si="22"/>
+        <v>60000</v>
       </c>
       <c r="H151" s="14">
-        <f>F151*C151</f>
-        <v>10000</v>
+        <f t="shared" si="23"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="49">
-        <v>2</v>
-      </c>
-      <c r="B152" s="44" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B152" s="53" t="s">
+        <v>5</v>
       </c>
       <c r="C152" s="9">
         <v>1</v>
@@ -5616,82 +5669,82 @@
         <v>15</v>
       </c>
       <c r="E152" s="14">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F152" s="14">
         <v>5000</v>
       </c>
       <c r="G152" s="14">
-        <f t="shared" ref="G152:G156" si="18">E152*C152</f>
+        <f t="shared" si="22"/>
+        <v>20000</v>
+      </c>
+      <c r="H152" s="14">
+        <f t="shared" si="23"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A153" s="49">
+        <v>6</v>
+      </c>
+      <c r="B153" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="9">
+        <v>1</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="14">
+        <v>30000</v>
+      </c>
+      <c r="F153" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G153" s="14">
+        <f t="shared" si="22"/>
+        <v>30000</v>
+      </c>
+      <c r="H153" s="14">
+        <f t="shared" si="23"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="49">
+        <v>7</v>
+      </c>
+      <c r="B154" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" s="9">
+        <v>1</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" s="14">
         <v>15000</v>
       </c>
-      <c r="H152" s="14">
-        <f t="shared" ref="H152:H156" si="19">F152*C152</f>
+      <c r="F154" s="14">
         <v>5000</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="49">
-        <v>3</v>
-      </c>
-      <c r="B153" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C153" s="9">
-        <v>1</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="14">
+      <c r="G154" s="14">
+        <f t="shared" si="22"/>
         <v>15000</v>
       </c>
-      <c r="F153" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G153" s="14">
-        <f t="shared" si="18"/>
-        <v>15000</v>
-      </c>
-      <c r="H153" s="14">
-        <f t="shared" si="19"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="49">
-        <v>4</v>
-      </c>
-      <c r="B154" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="9">
-        <v>1</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" s="14">
-        <v>25000</v>
-      </c>
-      <c r="F154" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G154" s="14">
-        <f t="shared" si="18"/>
-        <v>25000</v>
-      </c>
       <c r="H154" s="14">
-        <f t="shared" si="19"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49">
-        <v>5</v>
-      </c>
-      <c r="B155" s="53" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="C155" s="9">
         <v>1</v>
@@ -5700,72 +5753,308 @@
         <v>15</v>
       </c>
       <c r="E155" s="14">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="F155" s="14">
         <v>30000</v>
       </c>
       <c r="G155" s="14">
-        <f t="shared" si="18"/>
-        <v>60000</v>
+        <f t="shared" si="22"/>
+        <v>40000</v>
       </c>
       <c r="H155" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>30000</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="49">
+        <v>9</v>
+      </c>
+      <c r="B156" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="14">
+        <v>130000</v>
+      </c>
+      <c r="F156" s="14">
+        <v>25000</v>
+      </c>
+      <c r="G156" s="14">
+        <f t="shared" si="22"/>
+        <v>130000</v>
+      </c>
+      <c r="H156" s="14">
+        <f t="shared" si="23"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="49">
+        <v>10</v>
+      </c>
+      <c r="B157" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="44" t="s">
+      <c r="C157" s="9">
+        <v>1</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F157" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G157" s="14">
+        <f t="shared" si="22"/>
+        <v>40000</v>
+      </c>
+      <c r="H157" s="14">
+        <f t="shared" si="23"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="61"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="61"/>
+      <c r="F158" s="62"/>
+      <c r="G158" s="26">
+        <f>SUM(G148:G157)</f>
+        <v>475000</v>
+      </c>
+      <c r="H158" s="26">
+        <f>SUM(H148:H157)</f>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="43"/>
+      <c r="B160" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="43"/>
+      <c r="B161" s="42"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="49">
+        <v>1</v>
+      </c>
+      <c r="B162" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162" s="9">
+        <v>1</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F162" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G162" s="14">
+        <f>E162*C162</f>
+        <v>10000</v>
+      </c>
+      <c r="H162" s="14">
+        <f>F162*C162</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="49">
+        <v>2</v>
+      </c>
+      <c r="B163" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="9">
+        <v>1</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="14">
+        <v>15000</v>
+      </c>
+      <c r="F163" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G163" s="14">
+        <f t="shared" ref="G163:G167" si="24">E163*C163</f>
+        <v>15000</v>
+      </c>
+      <c r="H163" s="14">
+        <f t="shared" ref="H163:H167" si="25">F163*C163</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="49">
+        <v>3</v>
+      </c>
+      <c r="B164" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="9">
+        <v>1</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" s="14">
+        <v>15000</v>
+      </c>
+      <c r="F164" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G164" s="14">
+        <f t="shared" si="24"/>
+        <v>15000</v>
+      </c>
+      <c r="H164" s="14">
+        <f t="shared" si="25"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A165" s="49">
+        <v>4</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="9">
+        <v>1</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="14">
+        <v>25000</v>
+      </c>
+      <c r="F165" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G165" s="14">
+        <f t="shared" si="24"/>
+        <v>25000</v>
+      </c>
+      <c r="H165" s="14">
+        <f t="shared" si="25"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="49">
+        <v>5</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" s="9">
+        <v>1</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" s="14">
+        <v>60000</v>
+      </c>
+      <c r="F166" s="14">
+        <v>30000</v>
+      </c>
+      <c r="G166" s="14">
+        <f t="shared" si="24"/>
+        <v>60000</v>
+      </c>
+      <c r="H166" s="14">
+        <f t="shared" si="25"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="49">
         <v>6</v>
       </c>
-      <c r="C156" s="9">
-        <v>1</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="14">
+      <c r="B167" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="14">
         <v>30000</v>
       </c>
-      <c r="F156" s="14">
+      <c r="F167" s="14">
         <v>10000</v>
       </c>
-      <c r="G156" s="14">
-        <f t="shared" si="18"/>
+      <c r="G167" s="14">
+        <f t="shared" si="24"/>
         <v>30000</v>
       </c>
-      <c r="H156" s="14">
-        <f t="shared" si="19"/>
+      <c r="H167" s="14">
+        <f t="shared" si="25"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="61" t="s">
+    <row r="168" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A168" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B157" s="62"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="62"/>
-      <c r="E157" s="62"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="26">
-        <f>SUM(G149:G156)</f>
+      <c r="B168" s="61"/>
+      <c r="C168" s="61"/>
+      <c r="D168" s="61"/>
+      <c r="E168" s="61"/>
+      <c r="F168" s="62"/>
+      <c r="G168" s="26">
+        <f>SUM(G160:G167)</f>
         <v>155000</v>
       </c>
-      <c r="H157" s="26">
-        <f>SUM(H149:H156)</f>
+      <c r="H168" s="26">
+        <f>SUM(H160:H167)</f>
         <v>75000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A168:F168"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A51:F51"/>
@@ -5781,18 +6070,18 @@
     <brk id="51" max="16383" man="1"/>
     <brk id="75" max="16383" man="1"/>
     <brk id="99" max="16383" man="1"/>
-    <brk id="123" max="16383" man="1"/>
-    <brk id="147" max="16383" man="1"/>
+    <brk id="134" max="16383" man="1"/>
+    <brk id="158" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,16 +6098,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5898,11 +6187,11 @@
         <v>10000</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" ref="G6:G12" si="0">E6*C6</f>
+        <f t="shared" ref="G6:G16" si="0">E6*C6</f>
         <v>1800000</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" ref="H6:H12" si="1">F6*C6</f>
+        <f t="shared" ref="H6:H16" si="1">F6*C6</f>
         <v>40000</v>
       </c>
     </row>
@@ -5991,7 +6280,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="B10" s="50" t="s">
@@ -6018,143 +6307,159 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="54">
-        <f>SUM(G6:G10)</f>
-        <v>7445000</v>
-      </c>
-      <c r="H11" s="54">
-        <f>SUM(H6:H10)</f>
-        <v>275000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="52"/>
+    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <f t="shared" ref="G11:G14" si="2">E11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" ref="H11:H14" si="3">F11*C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>117</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="9">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="54">
+        <f>SUM(G6:G10)</f>
+        <v>7445000</v>
+      </c>
+      <c r="H15" s="54">
+        <f>SUM(H6:H10)</f>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H16" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="55" t="s">
+    <row r="17" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9">
-        <v>6</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>3</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9">
-        <v>6</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="9">
-        <v>12</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>14</v>
-      </c>
+    <row r="18" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C19" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
@@ -6164,101 +6469,101 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9">
         <v>6</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C21" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C22" s="9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>12</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>12</v>
@@ -6268,36 +6573,36 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C27" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -6306,16 +6611,16 @@
     </row>
     <row r="28" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C28" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -6324,48 +6629,64 @@
     </row>
     <row r="29" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+    <row r="30" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>12</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+    <row r="31" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>13</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -6375,110 +6696,162 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="14">
-        <f t="shared" ref="G32:G35" si="2">E32*C32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
-        <f t="shared" ref="H32:H35" si="3">F32*C32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>8</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="14">
-        <f t="shared" si="2"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14">
+        <f t="shared" ref="G36:G39" si="4">E36*C36</f>
         <v>0</v>
       </c>
-      <c r="H35" s="14">
-        <f t="shared" si="3"/>
+      <c r="H36" s="14">
+        <f t="shared" ref="H36:H39" si="5">F36*C36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="26">
-        <f>SUM(G15:G35)</f>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="26">
+        <f>SUM(G19:G39)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="26">
-        <f>SUM(H15:H35)</f>
+      <c r="H40" s="26">
+        <f>SUM(H19:H39)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="J40" s="47"/>
+    </row>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
@@ -6561,34 +6934,38 @@
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
-    </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="59"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="59"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="59"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="58"/>
+    </row>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="58"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="58"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="58"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="58"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
+++ b/Running projects/BAF Head Office/H.V.A.C Maintenance 2024 - 27 Aug 24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151B0E68-7439-4D59-8659-CC9335DB1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4B54A-21ED-4620-97B6-5363EA0556D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$101:$H$134</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$H$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Sheet2!$1:$2</definedName>
   </definedNames>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
   <si>
     <t>S.NO</t>
   </si>
@@ -207,10 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grand Total Amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removal of existing 8" dia gate valve including supply / installation of 8" dia Gate valve with related fittings inluding insulation and cladding.
-make HATTERSLEY OR GALA </t>
   </si>
   <si>
     <t>Supply and installation of booster pump for cooling tower and chilled water system with 2Hp motor and VFD drive and related material</t>
@@ -358,12 +355,6 @@
     <t>SFT</t>
   </si>
   <si>
-    <t>Providing and installation of insulation 3/4" thick for supply ans return air ducts.</t>
-  </si>
-  <si>
-    <t>Providing and installation of motorized valve</t>
-  </si>
-  <si>
     <t>Providing and installation of air devices</t>
   </si>
   <si>
@@ -379,16 +370,100 @@
     <t>Testing and commissioing of the system.</t>
   </si>
   <si>
-    <t>a)  06" Dia (Primary pumps)</t>
-  </si>
-  <si>
-    <t>Supply and installation of 08" Dia Gate valve for cooling water system suction and discharge lines.</t>
-  </si>
-  <si>
-    <t>b)  08" Dia (Secondary pumps)</t>
-  </si>
-  <si>
-    <t>Dismantle of cladding and insulation from chilled water primary and secondary pumps, removal of existing gate valves and supply and installation of new gate valves:</t>
+    <t>Providing and installation of insulation 3/4" thick for supply and return air ducts.</t>
+  </si>
+  <si>
+    <t>Providing and installation of motorized valve 02" Dia.</t>
+  </si>
+  <si>
+    <t>Sqin</t>
+  </si>
+  <si>
+    <t>Providing and installation of volume control dammper</t>
+  </si>
+  <si>
+    <t>Water cooled Chillers Conddenssor descaling with chemical and brushing complete in all respect.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removal of existing 8" dia gate valve from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secondary chilled water pump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including supply / installation of 8" dia Gate valve with related fittings including new insulation and cladding
+make HATTERSLEY OR GALA </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removal of existing 8" dia gate valve from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>secondary cooling water pump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including supply / installation of 8" dia Gate valve with related fittings
+Make HATTERSLEY OR GALA </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Removal of existing 6" dia gate valve from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary chilled water pump</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including supply / installation of 6" dia Gate valve with related fittings including new insulation and cladding
+make HATTERSLEY OR GALA </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -887,16 +962,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1001713</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34924</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -920,7 +995,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="476250" y="66675"/>
+          <a:off x="7693025" y="463550"/>
           <a:ext cx="944563" cy="730249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -939,16 +1014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1012051</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>168272</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202426</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88237</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -965,7 +1040,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1431151" y="168272"/>
+          <a:off x="8647926" y="565147"/>
           <a:ext cx="4483874" cy="681965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1042,16 +1117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1080,8 +1155,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="7486650"/>
-          <a:ext cx="828675" cy="571500"/>
+          <a:off x="9877425" y="8705850"/>
+          <a:ext cx="822325" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1356,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A8:E28"/>
+  <dimension ref="A11:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,155 +1763,95 @@
     <col min="16133" max="16133" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="E8" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="E10" s="29"/>
-    </row>
     <row r="11" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="E11" s="29"/>
+      <c r="E11" s="29" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="31">
-        <v>45563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="E15" s="31">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-    </row>
-    <row r="17" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+    </row>
+    <row r="20" spans="1:5" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C21" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E21" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>1</v>
-      </c>
-      <c r="B19" s="45" t="s">
+    <row r="22" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>1</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C22" s="48">
         <f>Sheet1!G27</f>
         <v>1533000</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D22" s="48">
         <f>Sheet1!H27</f>
-        <v>458000</v>
-      </c>
-      <c r="E19" s="48">
-        <f>D19+C19</f>
-        <v>1991000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>2</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="48">
-        <f>Sheet1!G51</f>
-        <v>1243000</v>
-      </c>
-      <c r="D20" s="48">
-        <f>Sheet1!H51</f>
-        <v>344000</v>
-      </c>
-      <c r="E20" s="48">
-        <f>D20+C20</f>
-        <v>1587000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>3</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="48">
-        <f>Sheet1!G75</f>
-        <v>1533000</v>
-      </c>
-      <c r="D21" s="48">
-        <f>Sheet1!H75</f>
-        <v>458000</v>
-      </c>
-      <c r="E21" s="48">
-        <f>D21+C21</f>
-        <v>1991000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>4</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="48">
-        <f>Sheet1!G99</f>
-        <v>1533000</v>
-      </c>
-      <c r="D22" s="48">
-        <f>Sheet1!H99</f>
         <v>458000</v>
       </c>
       <c r="E22" s="48">
@@ -1844,127 +1859,187 @@
         <v>1991000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C23" s="48">
-        <f>Sheet1!G134</f>
-        <v>892000</v>
+        <f>Sheet1!G51</f>
+        <v>1243000</v>
       </c>
       <c r="D23" s="48">
-        <f>Sheet1!H134</f>
-        <v>319000</v>
+        <f>Sheet1!H51</f>
+        <v>344000</v>
       </c>
       <c r="E23" s="48">
-        <f t="shared" ref="E23:E27" si="0">D23+C23</f>
-        <v>1211000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D23+C23</f>
+        <v>1587000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C24" s="48">
-        <f>Sheet1!G144</f>
-        <v>417000</v>
+        <f>Sheet1!G75</f>
+        <v>1533000</v>
       </c>
       <c r="D24" s="48">
-        <f>Sheet1!H144</f>
-        <v>90000</v>
+        <f>Sheet1!H75</f>
+        <v>458000</v>
       </c>
       <c r="E24" s="48">
         <f>D24+C24</f>
+        <v>1991000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>4</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="48">
+        <f>Sheet1!G99</f>
+        <v>1533000</v>
+      </c>
+      <c r="D25" s="48">
+        <f>Sheet1!H99</f>
+        <v>458000</v>
+      </c>
+      <c r="E25" s="48">
+        <f>D25+C25</f>
+        <v>1991000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>5</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="48">
+        <f>Sheet1!G135</f>
+        <v>2581800</v>
+      </c>
+      <c r="D26" s="48">
+        <f>Sheet1!H135</f>
+        <v>655000</v>
+      </c>
+      <c r="E26" s="48">
+        <f t="shared" ref="E26:E30" si="0">D26+C26</f>
+        <v>3236800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>6</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="48">
+        <f>Sheet1!G145</f>
+        <v>417000</v>
+      </c>
+      <c r="D27" s="48">
+        <f>Sheet1!H145</f>
+        <v>90000</v>
+      </c>
+      <c r="E27" s="48">
+        <f>D27+C27</f>
         <v>507000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B28" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="48">
-        <f>Sheet1!G158</f>
+      <c r="C28" s="48">
+        <f>Sheet1!G159</f>
         <v>475000</v>
       </c>
-      <c r="D25" s="48">
-        <f>Sheet1!H158</f>
+      <c r="D28" s="48">
+        <f>Sheet1!H159</f>
         <v>175000</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E28" s="48">
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+    <row r="29" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
         <v>8</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B29" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="48">
-        <f>Sheet1!G168</f>
+      <c r="C29" s="48">
+        <f>Sheet1!G169</f>
         <v>155000</v>
       </c>
-      <c r="D26" s="48">
-        <f>Sheet1!H168</f>
+      <c r="D29" s="48">
+        <f>Sheet1!H169</f>
         <v>75000</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E29" s="48">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+    <row r="30" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
         <v>9</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="39">
-        <f>Sheet2!G15</f>
-        <v>7445000</v>
-      </c>
-      <c r="D27" s="39">
-        <f>Sheet2!H15</f>
-        <v>275000</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="B30" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="39">
+        <f>Sheet2!G14</f>
+        <v>10530000</v>
+      </c>
+      <c r="D30" s="39">
+        <f>Sheet2!H14</f>
+        <v>500000</v>
+      </c>
+      <c r="E30" s="39">
         <f t="shared" si="0"/>
-        <v>7720000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36" t="s">
+        <v>11030000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="40">
-        <f>SUM(C19:C27)</f>
-        <v>15226000</v>
-      </c>
-      <c r="D28" s="40">
-        <f>SUM(D19:D27)</f>
-        <v>2652000</v>
-      </c>
-      <c r="E28" s="40">
-        <f>SUM(E19:E27)</f>
-        <v>17878000</v>
+      <c r="C31" s="40">
+        <f>SUM(C22:C30)</f>
+        <v>20000800</v>
+      </c>
+      <c r="D31" s="40">
+        <f>SUM(D22:D30)</f>
+        <v>3213000</v>
+      </c>
+      <c r="E31" s="40">
+        <f>SUM(E22:E30)</f>
+        <v>23213800</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1975,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K168"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="L138" sqref="L138"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -2110,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -2138,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -2166,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -2194,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -2222,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -2250,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -2278,7 +2353,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -2306,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -2334,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
@@ -2362,7 +2437,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
@@ -2390,7 +2465,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -2418,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
@@ -2446,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="9">
         <v>1</v>
@@ -2474,13 +2549,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="9">
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="14">
         <v>23000</v>
@@ -2502,7 +2577,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
@@ -2530,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="9">
         <v>1</v>
@@ -2558,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="9">
         <v>1</v>
@@ -2586,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="9">
         <v>1</v>
@@ -2614,13 +2689,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="9">
         <v>2</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="14">
         <v>20000</v>
@@ -2692,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -2720,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -2748,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
@@ -2776,7 +2851,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="9">
         <v>1</v>
@@ -2804,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="9">
         <v>1</v>
@@ -2832,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="9">
         <v>1</v>
@@ -2860,7 +2935,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
@@ -2888,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
@@ -2916,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -2944,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="9">
         <v>1</v>
@@ -2972,7 +3047,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="9">
         <v>1</v>
@@ -3000,7 +3075,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
@@ -3028,7 +3103,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="9">
         <v>2</v>
@@ -3056,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="9">
         <v>1</v>
@@ -3084,13 +3159,13 @@
         <v>15</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="9">
         <v>1</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E45" s="14">
         <v>15000</v>
@@ -3112,7 +3187,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
@@ -3140,7 +3215,7 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="9">
         <v>1</v>
@@ -3168,7 +3243,7 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="9">
         <v>1</v>
@@ -3196,7 +3271,7 @@
         <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="9">
         <v>1</v>
@@ -3224,13 +3299,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="9">
         <v>2</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="14">
         <v>20000</v>
@@ -3292,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
@@ -3320,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="9">
         <v>1</v>
@@ -3348,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="9">
         <v>1</v>
@@ -3376,7 +3451,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="9">
         <v>1</v>
@@ -3404,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -3432,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="9">
         <v>1</v>
@@ -3460,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -3488,7 +3563,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="9">
         <v>1</v>
@@ -3516,7 +3591,7 @@
         <v>9</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
@@ -3544,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="9">
         <v>1</v>
@@ -3572,7 +3647,7 @@
         <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C65" s="9">
         <v>1</v>
@@ -3600,7 +3675,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="9">
         <v>1</v>
@@ -3628,7 +3703,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="9">
         <v>2</v>
@@ -3656,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="9">
         <v>1</v>
@@ -3684,13 +3759,13 @@
         <v>15</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="9">
         <v>1</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="14">
         <v>23000</v>
@@ -3712,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="9">
         <v>1</v>
@@ -3740,7 +3815,7 @@
         <v>17</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="9">
         <v>1</v>
@@ -3768,7 +3843,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="9">
         <v>1</v>
@@ -3796,7 +3871,7 @@
         <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="9">
         <v>1</v>
@@ -3824,13 +3899,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="9">
         <v>2</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E74" s="14">
         <v>20000</v>
@@ -3892,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="9">
         <v>1</v>
@@ -3920,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="9">
         <v>1</v>
@@ -3948,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="9">
         <v>1</v>
@@ -3976,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="9">
         <v>1</v>
@@ -4004,7 +4079,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="9">
         <v>1</v>
@@ -4032,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="9">
         <v>1</v>
@@ -4060,7 +4135,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="9">
         <v>1</v>
@@ -4088,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="9">
         <v>1</v>
@@ -4116,7 +4191,7 @@
         <v>9</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="9">
         <v>1</v>
@@ -4144,7 +4219,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="9">
         <v>1</v>
@@ -4172,7 +4247,7 @@
         <v>11</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89" s="9">
         <v>1</v>
@@ -4200,7 +4275,7 @@
         <v>12</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="9">
         <v>1</v>
@@ -4228,7 +4303,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91" s="9">
         <v>2</v>
@@ -4256,7 +4331,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="9">
         <v>1</v>
@@ -4284,13 +4359,13 @@
         <v>15</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="9">
         <v>1</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E93" s="14">
         <v>23000</v>
@@ -4312,7 +4387,7 @@
         <v>16</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="9">
         <v>1</v>
@@ -4340,7 +4415,7 @@
         <v>17</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="9">
         <v>1</v>
@@ -4368,7 +4443,7 @@
         <v>18</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="9">
         <v>1</v>
@@ -4396,7 +4471,7 @@
         <v>19</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C97" s="9">
         <v>1</v>
@@ -4424,13 +4499,13 @@
         <v>20</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="9">
         <v>2</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E98" s="14">
         <v>20000</v>
@@ -4492,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" s="9">
         <v>1</v>
@@ -4520,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" s="9">
         <v>1</v>
@@ -4548,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="9">
         <v>1</v>
@@ -4576,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" s="9">
         <v>1</v>
@@ -4604,7 +4679,7 @@
         <v>5</v>
       </c>
       <c r="B107" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C107" s="9">
         <v>1</v>
@@ -4632,7 +4707,7 @@
         <v>6</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C108" s="9">
         <v>1</v>
@@ -4660,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" s="9">
         <v>1</v>
@@ -4688,7 +4763,7 @@
         <v>8</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C110" s="9">
         <v>1</v>
@@ -4716,7 +4791,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C111" s="9">
         <v>1</v>
@@ -4744,7 +4819,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C112" s="9">
         <v>1</v>
@@ -4772,7 +4847,7 @@
         <v>11</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C113" s="9">
         <v>1</v>
@@ -4800,7 +4875,7 @@
         <v>12</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C114" s="9">
         <v>1</v>
@@ -4828,7 +4903,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C115" s="9">
         <v>2</v>
@@ -4856,7 +4931,7 @@
         <v>14</v>
       </c>
       <c r="B116" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C116" s="9">
         <v>1</v>
@@ -4884,13 +4959,13 @@
         <v>15</v>
       </c>
       <c r="B117" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="9">
         <v>1</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E117" s="14">
         <v>10000</v>
@@ -4912,7 +4987,7 @@
         <v>16</v>
       </c>
       <c r="B118" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C118" s="9">
         <v>1</v>
@@ -4940,7 +5015,7 @@
         <v>17</v>
       </c>
       <c r="B119" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C119" s="9">
         <v>1</v>
@@ -4968,7 +5043,7 @@
         <v>18</v>
       </c>
       <c r="B120" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C120" s="9">
         <v>1</v>
@@ -4996,7 +5071,7 @@
         <v>19</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C121" s="9">
         <v>1</v>
@@ -5024,13 +5099,13 @@
         <v>20</v>
       </c>
       <c r="B122" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C122" s="9">
         <v>2</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E122" s="14">
         <v>20000</v>
@@ -5052,7 +5127,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C123" s="9">
         <v>1</v>
@@ -5060,15 +5135,19 @@
       <c r="D123" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
+      <c r="E123" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F123" s="14">
+        <v>70000</v>
+      </c>
       <c r="G123" s="14">
-        <f t="shared" ref="G123:G133" si="14">E123*C123</f>
-        <v>0</v>
+        <f t="shared" ref="G123:G134" si="14">E123*C123</f>
+        <v>10000</v>
       </c>
       <c r="H123" s="14">
-        <f t="shared" ref="H123:H133" si="15">F123*C123</f>
-        <v>0</v>
+        <f t="shared" ref="H123:H134" si="15">F123*C123</f>
+        <v>70000</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5076,7 +5155,7 @@
         <v>22</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" s="9">
         <v>1</v>
@@ -5084,15 +5163,19 @@
       <c r="D124" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
+      <c r="E124" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F124" s="14">
+        <v>20000</v>
+      </c>
       <c r="G124" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -5100,21 +5183,27 @@
         <v>23</v>
       </c>
       <c r="B125" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="E125" s="14">
+        <v>425</v>
+      </c>
+      <c r="F125" s="14">
+        <v>75</v>
+      </c>
       <c r="G125" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>510000</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -5122,109 +5211,139 @@
         <v>24</v>
       </c>
       <c r="B126" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="C126" s="9">
+        <v>1200</v>
+      </c>
       <c r="D126" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="E126" s="14">
+        <v>450</v>
+      </c>
+      <c r="F126" s="14">
+        <v>50</v>
+      </c>
       <c r="G126" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>540000</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49">
         <v>25</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="C127" s="9">
+        <v>1</v>
+      </c>
       <c r="D127" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="E127" s="14">
+        <v>180000</v>
+      </c>
+      <c r="F127" s="14">
+        <v>10000</v>
+      </c>
       <c r="G127" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49">
         <v>26</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C128" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="C128" s="9">
+        <v>1600</v>
+      </c>
       <c r="D128" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="E128" s="14">
+        <v>28</v>
+      </c>
+      <c r="F128" s="14">
+        <v>5</v>
+      </c>
       <c r="G128" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>44800</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="49">
         <v>27</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="C129" s="9">
+        <v>1600</v>
+      </c>
       <c r="D129" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="E129" s="14">
+        <v>25</v>
+      </c>
+      <c r="F129" s="14">
+        <v>5</v>
+      </c>
       <c r="G129" s="14">
-        <f t="shared" ref="G129:G131" si="16">E129*C129</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>40000</v>
       </c>
       <c r="H129" s="14">
-        <f t="shared" ref="H129:H131" si="17">F129*C129</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49">
         <v>28</v>
       </c>
       <c r="B130" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C130" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="C130" s="9">
+        <v>1</v>
+      </c>
       <c r="D130" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="E130" s="14">
+        <v>265000</v>
+      </c>
+      <c r="F130" s="14">
+        <v>20000</v>
+      </c>
       <c r="G130" s="14">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" ref="G130:G132" si="16">E130*C130</f>
+        <v>265000</v>
       </c>
       <c r="H130" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="H130:H132" si="17">F130*C130</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -5232,7 +5351,7 @@
         <v>29</v>
       </c>
       <c r="B131" s="50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C131" s="9">
         <v>1</v>
@@ -5240,23 +5359,27 @@
       <c r="D131" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="E131" s="14">
+        <v>60000</v>
+      </c>
+      <c r="F131" s="14">
+        <v>15000</v>
+      </c>
       <c r="G131" s="14">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="49">
         <v>30</v>
       </c>
       <c r="B132" s="50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C132" s="9">
         <v>1</v>
@@ -5264,111 +5387,113 @@
       <c r="D132" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
+      <c r="E132" s="14">
+        <v>30000</v>
+      </c>
+      <c r="F132" s="14">
+        <v>10000</v>
+      </c>
       <c r="G132" s="14">
-        <f t="shared" ref="G132" si="18">E132*C132</f>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>30000</v>
       </c>
       <c r="H132" s="14">
-        <f t="shared" ref="H132" si="19">F132*C132</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="49">
         <v>31</v>
       </c>
-      <c r="B133" s="50"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
+      <c r="B133" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C133" s="9">
+        <v>1</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
+      <c r="F133" s="14">
+        <v>25000</v>
+      </c>
       <c r="G133" s="14">
+        <f t="shared" ref="G133" si="18">E133*C133</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
+        <f t="shared" ref="H133" si="19">F133*C133</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="49">
+        <v>32</v>
+      </c>
+      <c r="B134" s="50"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H133" s="14">
+      <c r="H134" s="14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A134" s="60" t="s">
+    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B134" s="61"/>
-      <c r="C134" s="61"/>
-      <c r="D134" s="61"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="26">
-        <f>SUM(G101:G133)</f>
-        <v>892000</v>
-      </c>
-      <c r="H134" s="26">
-        <f>SUM(H101:H133)</f>
-        <v>319000</v>
-      </c>
-      <c r="J134" s="47"/>
-      <c r="K134" s="47"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="62"/>
+      <c r="G135" s="26">
+        <f>SUM(G101:G134)</f>
+        <v>2581800</v>
+      </c>
+      <c r="H135" s="26">
+        <f>SUM(H101:H134)</f>
+        <v>655000</v>
+      </c>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
-      <c r="B137" s="42"/>
+      <c r="B137" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-    </row>
-    <row r="138" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A138" s="49">
-        <v>1</v>
-      </c>
-      <c r="B138" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C138" s="9">
-        <v>2</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="14">
-        <v>75000</v>
-      </c>
-      <c r="F138" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G138" s="14">
-        <f>E138*C138</f>
-        <v>150000</v>
-      </c>
-      <c r="H138" s="14">
-        <f>F138*C138</f>
-        <v>20000</v>
-      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="43"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
     </row>
     <row r="139" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A139" s="49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="53" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C139" s="9">
         <v>2</v>
@@ -5377,26 +5502,26 @@
         <v>12</v>
       </c>
       <c r="E139" s="14">
-        <v>19500</v>
+        <v>75000</v>
       </c>
       <c r="F139" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G139" s="14">
         <f>E139*C139</f>
-        <v>39000</v>
+        <v>150000</v>
       </c>
       <c r="H139" s="14">
         <f>F139*C139</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A140" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C140" s="9">
         <v>2</v>
@@ -5405,23 +5530,23 @@
         <v>12</v>
       </c>
       <c r="E140" s="14">
-        <v>45000</v>
+        <v>19500</v>
       </c>
       <c r="F140" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G140" s="14">
+        <f>E140*C140</f>
+        <v>39000</v>
+      </c>
+      <c r="H140" s="14">
+        <f>F140*C140</f>
         <v>10000</v>
       </c>
-      <c r="G140" s="14">
-        <f t="shared" ref="G140:G142" si="20">E140*C140</f>
-        <v>90000</v>
-      </c>
-      <c r="H140" s="14">
-        <f t="shared" ref="H140:H142" si="21">F140*C140</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A141" s="49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" s="53" t="s">
         <v>97</v>
@@ -5433,26 +5558,26 @@
         <v>12</v>
       </c>
       <c r="E141" s="14">
-        <v>12000</v>
+        <v>45000</v>
       </c>
       <c r="F141" s="14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G141" s="14">
-        <f>E141*C141</f>
-        <v>24000</v>
+        <f t="shared" ref="G141:G143" si="20">E141*C141</f>
+        <v>90000</v>
       </c>
       <c r="H141" s="14">
-        <f>F141*C141</f>
-        <v>10000</v>
+        <f t="shared" ref="H141:H143" si="21">F141*C141</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" s="53" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C142" s="9">
         <v>2</v>
@@ -5461,262 +5586,262 @@
         <v>12</v>
       </c>
       <c r="E142" s="14">
+        <v>12000</v>
+      </c>
+      <c r="F142" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G142" s="14">
+        <f>E142*C142</f>
+        <v>24000</v>
+      </c>
+      <c r="H142" s="14">
+        <f>F142*C142</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A143" s="49">
+        <v>5</v>
+      </c>
+      <c r="B143" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" s="9">
+        <v>2</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="14">
         <v>45000</v>
       </c>
-      <c r="F142" s="14">
+      <c r="F143" s="14">
         <v>10000</v>
       </c>
-      <c r="G142" s="14">
+      <c r="G143" s="14">
         <f t="shared" si="20"/>
         <v>90000</v>
       </c>
-      <c r="H142" s="14">
+      <c r="H143" s="14">
         <f t="shared" si="21"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A143" s="49">
+    <row r="144" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A144" s="49">
         <v>6</v>
       </c>
-      <c r="B143" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C143" s="9">
+      <c r="B144" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C144" s="9">
         <v>2</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D144" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E143" s="14">
+      <c r="E144" s="14">
         <v>12000</v>
       </c>
-      <c r="F143" s="14">
+      <c r="F144" s="14">
         <v>5000</v>
       </c>
-      <c r="G143" s="14">
-        <f>E143*C143</f>
+      <c r="G144" s="14">
+        <f>E144*C144</f>
         <v>24000</v>
       </c>
-      <c r="H143" s="14">
-        <f>F143*C143</f>
+      <c r="H144" s="14">
+        <f>F144*C144</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="60" t="s">
+    <row r="145" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B144" s="61"/>
-      <c r="C144" s="61"/>
-      <c r="D144" s="61"/>
-      <c r="E144" s="61"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="26">
-        <f>SUM(G136:G143)</f>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="26">
+        <f>SUM(G137:G144)</f>
         <v>417000</v>
       </c>
-      <c r="H144" s="26">
-        <f>SUM(H136:H143)</f>
+      <c r="H145" s="26">
+        <f>SUM(H137:H144)</f>
         <v>90000</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="43"/>
-      <c r="B146" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="43"/>
-      <c r="B147" s="42"/>
+      <c r="B147" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-    </row>
-    <row r="148" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="49">
-        <v>1</v>
-      </c>
-      <c r="B148" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C148" s="9">
-        <v>1</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="14">
-        <v>30000</v>
-      </c>
-      <c r="F148" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G148" s="14">
-        <f>E148*C148</f>
-        <v>30000</v>
-      </c>
-      <c r="H148" s="14">
-        <f>F148*C148</f>
-        <v>20000</v>
-      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="43"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
     </row>
     <row r="149" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="49">
+        <v>1</v>
+      </c>
+      <c r="B149" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" s="14">
+        <v>30000</v>
+      </c>
+      <c r="F149" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G149" s="14">
+        <f>E149*C149</f>
+        <v>30000</v>
+      </c>
+      <c r="H149" s="14">
+        <f>F149*C149</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="49">
         <v>2</v>
       </c>
-      <c r="B149" s="53" t="s">
+      <c r="B150" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C149" s="9">
-        <v>1</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E149" s="14">
-        <v>20000</v>
-      </c>
-      <c r="F149" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G149" s="14">
-        <f t="shared" ref="G149:G157" si="22">E149*C149</f>
-        <v>20000</v>
-      </c>
-      <c r="H149" s="14">
-        <f t="shared" ref="H149:H157" si="23">F149*C149</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="49">
+      <c r="C150" s="9">
+        <v>1</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F150" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G150" s="14">
+        <f t="shared" ref="G150:G158" si="22">E150*C150</f>
+        <v>20000</v>
+      </c>
+      <c r="H150" s="14">
+        <f t="shared" ref="H150:H158" si="23">F150*C150</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="49">
         <v>3</v>
       </c>
-      <c r="B150" s="53" t="s">
+      <c r="B151" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C151" s="9">
         <v>2</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D151" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E150" s="14">
+      <c r="E151" s="14">
         <v>45000</v>
       </c>
-      <c r="F150" s="14">
+      <c r="F151" s="14">
         <v>10000</v>
       </c>
-      <c r="G150" s="14">
+      <c r="G151" s="14">
         <f t="shared" si="22"/>
         <v>90000</v>
       </c>
-      <c r="H150" s="14">
+      <c r="H151" s="14">
         <f t="shared" si="23"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="49">
+    <row r="152" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="49">
         <v>4</v>
       </c>
-      <c r="B151" s="53" t="s">
+      <c r="B152" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C151" s="9">
-        <v>1</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="14">
+      <c r="C152" s="9">
+        <v>1</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="14">
         <v>60000</v>
       </c>
-      <c r="F151" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G151" s="14">
+      <c r="F152" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G152" s="14">
         <f t="shared" si="22"/>
         <v>60000</v>
       </c>
-      <c r="H151" s="14">
-        <f t="shared" si="23"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="49">
-        <v>5</v>
-      </c>
-      <c r="B152" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" s="9">
-        <v>1</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="14">
-        <v>20000</v>
-      </c>
-      <c r="F152" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G152" s="14">
-        <f t="shared" si="22"/>
-        <v>20000</v>
-      </c>
       <c r="H152" s="14">
         <f t="shared" si="23"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="49">
+        <v>5</v>
+      </c>
+      <c r="B153" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="9">
+        <v>1</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="14">
+        <v>20000</v>
+      </c>
+      <c r="F153" s="14">
         <v>5000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="49">
-        <v>6</v>
-      </c>
-      <c r="B153" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="9">
-        <v>1</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="14">
-        <v>30000</v>
-      </c>
-      <c r="F153" s="14">
-        <v>20000</v>
       </c>
       <c r="G153" s="14">
         <f t="shared" si="22"/>
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="H153" s="14">
         <f t="shared" si="23"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A154" s="49">
-        <v>7</v>
-      </c>
-      <c r="B154" s="50" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B154" s="53" t="s">
+        <v>4</v>
       </c>
       <c r="C154" s="9">
         <v>1</v>
@@ -5725,82 +5850,82 @@
         <v>15</v>
       </c>
       <c r="E154" s="14">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F154" s="14">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G154" s="14">
         <f t="shared" si="22"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H154" s="14">
         <f t="shared" si="23"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="49">
+        <v>7</v>
+      </c>
+      <c r="B155" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="9">
+        <v>1</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="14">
+        <v>15000</v>
+      </c>
+      <c r="F155" s="14">
         <v>5000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="49">
-        <v>8</v>
-      </c>
-      <c r="B155" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C155" s="9">
-        <v>1</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="14">
-        <v>40000</v>
-      </c>
-      <c r="F155" s="14">
-        <v>30000</v>
       </c>
       <c r="G155" s="14">
         <f t="shared" si="22"/>
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="H155" s="14">
         <f t="shared" si="23"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="49">
+        <v>8</v>
+      </c>
+      <c r="B156" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F156" s="14">
         <v>30000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="49">
-        <v>9</v>
-      </c>
-      <c r="B156" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="C156" s="9">
-        <v>1</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="14">
-        <v>130000</v>
-      </c>
-      <c r="F156" s="14">
-        <v>25000</v>
       </c>
       <c r="G156" s="14">
         <f t="shared" si="22"/>
-        <v>130000</v>
+        <v>40000</v>
       </c>
       <c r="H156" s="14">
         <f t="shared" si="23"/>
-        <v>25000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="49">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B157" s="50" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C157" s="9">
         <v>1</v>
@@ -5809,122 +5934,122 @@
         <v>15</v>
       </c>
       <c r="E157" s="14">
-        <v>40000</v>
+        <v>130000</v>
       </c>
       <c r="F157" s="14">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="G157" s="14">
         <f t="shared" si="22"/>
-        <v>40000</v>
+        <v>130000</v>
       </c>
       <c r="H157" s="14">
         <f t="shared" si="23"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="49">
+        <v>10</v>
+      </c>
+      <c r="B158" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="9">
+        <v>1</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E158" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F158" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A158" s="60" t="s">
+      <c r="G158" s="14">
+        <f t="shared" si="22"/>
+        <v>40000</v>
+      </c>
+      <c r="H158" s="14">
+        <f t="shared" si="23"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A159" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B158" s="61"/>
-      <c r="C158" s="61"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="61"/>
-      <c r="F158" s="62"/>
-      <c r="G158" s="26">
-        <f>SUM(G148:G157)</f>
+      <c r="B159" s="61"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="61"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="26">
+        <f>SUM(G149:G158)</f>
         <v>475000</v>
       </c>
-      <c r="H158" s="26">
-        <f>SUM(H148:H157)</f>
+      <c r="H159" s="26">
+        <f>SUM(H149:H158)</f>
         <v>175000</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
-      <c r="B160" s="41" t="s">
+    <row r="161" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="43"/>
+      <c r="B161" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
-      <c r="B161" s="42"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-    </row>
-    <row r="162" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="49">
-        <v>1</v>
-      </c>
-      <c r="B162" s="44" t="s">
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="43"/>
+      <c r="B162" s="42"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+      <c r="H162" s="14"/>
+    </row>
+    <row r="163" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="49">
+        <v>1</v>
+      </c>
+      <c r="B163" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="9">
-        <v>1</v>
-      </c>
-      <c r="D162" s="9" t="s">
+      <c r="C163" s="9">
+        <v>1</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="14">
+      <c r="E163" s="14">
         <v>10000</v>
       </c>
-      <c r="F162" s="14">
+      <c r="F163" s="14">
         <v>10000</v>
       </c>
-      <c r="G162" s="14">
-        <f>E162*C162</f>
+      <c r="G163" s="14">
+        <f>E163*C163</f>
         <v>10000</v>
       </c>
-      <c r="H162" s="14">
-        <f>F162*C162</f>
+      <c r="H163" s="14">
+        <f>F163*C163</f>
         <v>10000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="49">
-        <v>2</v>
-      </c>
-      <c r="B163" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="9">
-        <v>1</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="14">
-        <v>15000</v>
-      </c>
-      <c r="F163" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G163" s="14">
-        <f t="shared" ref="G163:G167" si="24">E163*C163</f>
-        <v>15000</v>
-      </c>
-      <c r="H163" s="14">
-        <f t="shared" ref="H163:H167" si="25">F163*C163</f>
-        <v>5000</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C164" s="9">
         <v>1</v>
@@ -5936,51 +6061,51 @@
         <v>15000</v>
       </c>
       <c r="F164" s="14">
+        <v>5000</v>
+      </c>
+      <c r="G164" s="14">
+        <f t="shared" ref="G164:G168" si="24">E164*C164</f>
+        <v>15000</v>
+      </c>
+      <c r="H164" s="14">
+        <f t="shared" ref="H164:H168" si="25">F164*C164</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="49">
+        <v>3</v>
+      </c>
+      <c r="B165" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="9">
+        <v>1</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="14">
+        <v>15000</v>
+      </c>
+      <c r="F165" s="14">
         <v>10000</v>
       </c>
-      <c r="G164" s="14">
+      <c r="G165" s="14">
         <f t="shared" si="24"/>
         <v>15000</v>
-      </c>
-      <c r="H164" s="14">
-        <f t="shared" si="25"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="49">
-        <v>4</v>
-      </c>
-      <c r="B165" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="9">
-        <v>1</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" s="14">
-        <v>25000</v>
-      </c>
-      <c r="F165" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G165" s="14">
-        <f t="shared" si="24"/>
-        <v>25000</v>
       </c>
       <c r="H165" s="14">
         <f t="shared" si="25"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A166" s="49">
-        <v>5</v>
-      </c>
-      <c r="B166" s="53" t="s">
-        <v>46</v>
+        <v>4</v>
+      </c>
+      <c r="B166" s="44" t="s">
+        <v>4</v>
       </c>
       <c r="C166" s="9">
         <v>1</v>
@@ -5989,26 +6114,26 @@
         <v>15</v>
       </c>
       <c r="E166" s="14">
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="F166" s="14">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G166" s="14">
         <f t="shared" si="24"/>
-        <v>60000</v>
+        <v>25000</v>
       </c>
       <c r="H166" s="14">
         <f t="shared" si="25"/>
-        <v>30000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="49">
-        <v>6</v>
-      </c>
-      <c r="B167" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B167" s="53" t="s">
+        <v>46</v>
       </c>
       <c r="C167" s="9">
         <v>1</v>
@@ -6017,44 +6142,72 @@
         <v>15</v>
       </c>
       <c r="E167" s="14">
+        <v>60000</v>
+      </c>
+      <c r="F167" s="14">
         <v>30000</v>
-      </c>
-      <c r="F167" s="14">
-        <v>10000</v>
       </c>
       <c r="G167" s="14">
         <f t="shared" si="24"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="H167" s="14">
         <f t="shared" si="25"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="49">
+        <v>6</v>
+      </c>
+      <c r="B168" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="9">
+        <v>1</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="14">
+        <v>30000</v>
+      </c>
+      <c r="F168" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A168" s="60" t="s">
+      <c r="G168" s="14">
+        <f t="shared" si="24"/>
+        <v>30000</v>
+      </c>
+      <c r="H168" s="14">
+        <f t="shared" si="25"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B168" s="61"/>
-      <c r="C168" s="61"/>
-      <c r="D168" s="61"/>
-      <c r="E168" s="61"/>
-      <c r="F168" s="62"/>
-      <c r="G168" s="26">
-        <f>SUM(G160:G167)</f>
+      <c r="B169" s="61"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="61"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="26">
+        <f>SUM(G161:G168)</f>
         <v>155000</v>
       </c>
-      <c r="H168" s="26">
-        <f>SUM(H160:H167)</f>
+      <c r="H169" s="26">
+        <f>SUM(H161:H168)</f>
         <v>75000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A169:F169"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A51:F51"/>
@@ -6064,24 +6217,26 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.4" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="7" manualBreakCount="7">
+  <rowBreaks count="9" manualBreakCount="9">
     <brk id="13" max="16383" man="1"/>
     <brk id="27" max="16383" man="1"/>
     <brk id="51" max="16383" man="1"/>
+    <brk id="66" max="7" man="1"/>
     <brk id="75" max="16383" man="1"/>
+    <brk id="90" max="7" man="1"/>
     <brk id="99" max="16383" man="1"/>
-    <brk id="134" max="16383" man="1"/>
-    <brk id="158" max="16383" man="1"/>
+    <brk id="135" max="16383" man="1"/>
+    <brk id="159" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6148,7 +6303,7 @@
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
@@ -6172,7 +6327,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="23">
         <v>4</v>
@@ -6187,23 +6342,23 @@
         <v>10000</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" ref="G6:G16" si="0">E6*C6</f>
+        <f t="shared" ref="G6:G15" si="0">E6*C6</f>
         <v>1800000</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" ref="H6:H16" si="1">F6*C6</f>
+        <f t="shared" ref="H6:H15" si="1">F6*C6</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C7" s="23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>14</v>
@@ -6216,145 +6371,159 @@
       </c>
       <c r="G7" s="14">
         <f t="shared" si="0"/>
-        <v>1855000</v>
+        <v>1590000</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="1"/>
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
+        <v>118</v>
+      </c>
+      <c r="C8" s="23">
+        <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="14">
-        <v>1400000</v>
+        <v>180000</v>
       </c>
       <c r="F8" s="14">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="0"/>
-        <v>2800000</v>
+        <v>1080000</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="23">
         <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="14">
+        <v>265000</v>
+      </c>
+      <c r="F9" s="14">
+        <v>15000</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" ref="G9" si="2">E9*C9</f>
+        <v>1590000</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" ref="H9" si="3">F9*C9</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1620000</v>
+      </c>
+      <c r="F10" s="14">
+        <v>30000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>3240000</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="14">
         <v>40000</v>
       </c>
-      <c r="F9" s="14">
-        <v>20000</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="F11" s="14">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H11" s="14">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    <row r="12" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="14">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="14">
         <v>950000</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F12" s="14">
         <v>50000</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
         <v>950000</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H12" s="14">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="50" t="s">
+    <row r="13" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" s="9">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14">
-        <f t="shared" ref="G11:G14" si="2">E11*C11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" ref="H11:H14" si="3">F11*C11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="50" t="s">
-        <v>114</v>
       </c>
       <c r="C13" s="9">
         <v>6</v>
@@ -6362,104 +6531,104 @@
       <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="14">
+        <v>40000</v>
+      </c>
+      <c r="F13" s="14">
+        <v>10000</v>
+      </c>
       <c r="G13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G13" si="4">E13*C13</f>
+        <v>240000</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" ref="H13" si="5">F13*C13</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="54">
+        <f>SUM(G6:G13)</f>
+        <v>10530000</v>
+      </c>
+      <c r="H14" s="54">
+        <f>SUM(H6:H13)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="14">
-        <f t="shared" si="3"/>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="9">
-        <v>6</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="54">
-        <f>SUM(G6:G10)</f>
-        <v>7445000</v>
-      </c>
-      <c r="H15" s="54">
-        <f>SUM(H6:H10)</f>
-        <v>275000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="56"/>
       <c r="D16" s="9"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="9"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="9"/>
+    <row r="18" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>14</v>
@@ -6469,9 +6638,9 @@
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>60</v>
@@ -6487,15 +6656,15 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C21" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
@@ -6505,15 +6674,15 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>14</v>
@@ -6523,33 +6692,33 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="9">
-        <v>6</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="9">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -6557,13 +6726,13 @@
     </row>
     <row r="25" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="50" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>12</v>
@@ -6573,15 +6742,15 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>12</v>
@@ -6593,13 +6762,13 @@
     </row>
     <row r="27" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C27" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>12</v>
@@ -6611,10 +6780,10 @@
     </row>
     <row r="28" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="9">
         <v>3</v>
@@ -6627,48 +6796,48 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C29" s="9">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C30" s="9">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6683,10 +6852,10 @@
     </row>
     <row r="32" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -6699,19 +6868,11 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>15</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="9">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>14</v>
-      </c>
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -6727,70 +6888,84 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+    <row r="35" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="14">
+        <f t="shared" ref="G35:G38" si="6">E35*C35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" ref="H35:H38" si="7">F35*C35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14">
-        <f t="shared" ref="G36:G39" si="4">E36*C36</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f t="shared" ref="H36:H39" si="5">F36*C36</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>5</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C37" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H37" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
@@ -6801,57 +6976,34 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H38" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>8</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="9">
-        <v>1</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14">
-        <f t="shared" si="4"/>
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="26">
+        <f>SUM(G18:G38)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="14">
-        <f t="shared" si="5"/>
+      <c r="H39" s="26">
+        <f>SUM(H18:H38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="26">
-        <f>SUM(G19:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="26">
-        <f>SUM(H19:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="47"/>
-    </row>
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
@@ -6937,11 +7089,13 @@
     <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="58"/>
+    </row>
     <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="58"/>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="58"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -6952,20 +7106,18 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="58"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A39:F39"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="15" max="16383" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="9" max="7" man="1"/>
+    <brk id="14" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>